--- a/TeamPlan_v0.1/Gantt chart/Team planning Gantt chart.xlsx
+++ b/TeamPlan_v0.1/Gantt chart/Team planning Gantt chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="588" yWindow="528" windowWidth="15996" windowHeight="5772"/>
+    <workbookView xWindow="204" yWindow="552" windowWidth="22716" windowHeight="9468"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="60">
   <si>
     <t/>
   </si>
   <si>
-    <t>Board -  Start from scratch (by days)</t>
+    <t>Board -  Start from scratch (by weeks)</t>
   </si>
   <si>
     <t>Mar-2022</t>
@@ -190,7 +190,10 @@
     <t>1ο Παραδοτέο(1ο Παραδοτέο)</t>
   </si>
   <si>
-    <t>1ο Παραδοτέο (16-Mar-22 - 16-Mar-22)</t>
+    <t>17-Mar-2022</t>
+  </si>
+  <si>
+    <t>1ο Παραδοτέο (17-Mar-22 - 17-Mar-22)</t>
   </si>
 </sst>
 </file>
@@ -2136,23 +2139,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BL10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="1" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" customWidth="1"/>
-    <col min="6" max="6" width="19.69921875" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="13" max="13" width="13.5" customWidth="1"/>
-    <col min="14" max="14" width="14.59765625" customWidth="1"/>
-    <col min="15" max="15" width="14.09765625" customWidth="1"/>
-    <col min="17" max="17" width="5.5" customWidth="1"/>
-    <col min="20" max="20" width="41.3984375" customWidth="1"/>
+    <col min="5" max="5" width="17.09765625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="14" max="14" width="17.19921875" customWidth="1"/>
+    <col min="20" max="20" width="18.796875" customWidth="1"/>
+    <col min="21" max="21" width="36.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="31.2">
@@ -2700,21 +2700,21 @@
         <v>57</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C10" s="89" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D10" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="T10" s="110" t="s">
-        <v>58</v>
+      <c r="U10" s="110" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="T10"/>
+    <mergeCell ref="U10"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="E2:AI2"/>
     <mergeCell ref="AJ2:BL2"/>

--- a/TeamPlan_v0.1/Gantt chart/Team planning Gantt chart.xlsx
+++ b/TeamPlan_v0.1/Gantt chart/Team planning Gantt chart.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="138">
   <si>
     <t/>
   </si>
   <si>
-    <t>Board -  Start from scratch (by weeks)</t>
+    <t>Board -  Start from scratch (by months)</t>
+  </si>
+  <si>
+    <t>Feb-2022</t>
   </si>
   <si>
     <t>Mar-2022</t>
@@ -28,102 +31,126 @@
     <t>Apr-2022</t>
   </si>
   <si>
+    <t>May-2022</t>
+  </si>
+  <si>
+    <t>Jun-2022</t>
+  </si>
+  <si>
+    <t>Jul-2022</t>
+  </si>
+  <si>
+    <t>Aug-2022</t>
+  </si>
+  <si>
+    <t>Sep-2022</t>
+  </si>
+  <si>
+    <t>Oct-2022</t>
+  </si>
+  <si>
+    <t>Nov-2022</t>
+  </si>
+  <si>
+    <t>Dec-2022</t>
+  </si>
+  <si>
     <t>Start</t>
   </si>
   <si>
     <t>End</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>26</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>31</t>
   </si>
   <si>
@@ -160,19 +187,19 @@
     <t>09-Mar-2022</t>
   </si>
   <si>
+    <t>17-Mar-2022</t>
+  </si>
+  <si>
+    <t>RiskAssessment_v0.1 (09-Mar-22 - 17-Mar-22)</t>
+  </si>
+  <si>
+    <t>TeamPlan_v0.1(TeamPlan_v0.1)</t>
+  </si>
+  <si>
     <t>11-Mar-2022</t>
   </si>
   <si>
-    <t>RiskAssessment_v0.1 (09-Mar-22 - 11-Mar-22)</t>
-  </si>
-  <si>
-    <t>TeamPlan_v0.1(TeamPlan_v0.1)</t>
-  </si>
-  <si>
-    <t>14-Mar-2022</t>
-  </si>
-  <si>
-    <t>TeamPlan_v0.1 (11-Mar-22 - 14-Mar-22)</t>
+    <t>TeamPlan_v0.1 (11-Mar-22 - 17-Mar-22)</t>
   </si>
   <si>
     <t>TeamRiskAssessment_v0.1(TeamRiskAssessment_v0.1)</t>
@@ -181,26 +208,233 @@
     <t>13-Mar-2022</t>
   </si>
   <si>
-    <t>16-Mar-2022</t>
-  </si>
-  <si>
-    <t>TeamRiskAssessment_v0.1 (13-Mar-22 - 16-Mar-22)</t>
+    <t>TeamRiskAssessment_v0.1 (13-Mar-22 - 17-Mar-22)</t>
   </si>
   <si>
     <t>1ο Παραδοτέο(1ο Παραδοτέο)</t>
   </si>
   <si>
-    <t>17-Mar-2022</t>
-  </si>
-  <si>
     <t>1ο Παραδοτέο (17-Mar-22 - 17-Mar-22)</t>
+  </si>
+  <si>
+    <t>ProjectDescription_v0.2(ProjectDescription_v0.2)</t>
+  </si>
+  <si>
+    <t>18-Mar-2022</t>
+  </si>
+  <si>
+    <t>23-Mar-2022</t>
+  </si>
+  <si>
+    <t>ProjectDescription_v0.2 (18-Mar-22 - 23-Mar-22)</t>
+  </si>
+  <si>
+    <t>UseCases_v0.1(UseCases_v0.1)</t>
+  </si>
+  <si>
+    <t>29-Mar-2022</t>
+  </si>
+  <si>
+    <t>UseCases_v0.1 (23-Mar-22 - 29-Mar-22)</t>
+  </si>
+  <si>
+    <t>DomainModel_v0.1(DomainModel_v0.1)</t>
+  </si>
+  <si>
+    <t>25-Mar-2022</t>
+  </si>
+  <si>
+    <t>31-Mar-2022</t>
+  </si>
+  <si>
+    <t>DomainModel_v0.1 (25-Mar-22 - 31-Mar-22)</t>
+  </si>
+  <si>
+    <t>2ο Παραδοτέο(2ο Παραδοτέο)</t>
+  </si>
+  <si>
+    <t>01-Apr-2022</t>
+  </si>
+  <si>
+    <t>2ο Παραδοτέο (01-Apr-22 - 01-Apr-22)</t>
+  </si>
+  <si>
+    <t>ProjectCode_v0.1(ProjectCode_v0.1)</t>
+  </si>
+  <si>
+    <t>17-Apr-2022</t>
+  </si>
+  <si>
+    <t>ProjectCode_v0.1 (01-Apr-22 - 17-Apr-22)</t>
+  </si>
+  <si>
+    <t>UseCases_v0.2(UseCases_v0.2)</t>
+  </si>
+  <si>
+    <t>06-Apr-2022</t>
+  </si>
+  <si>
+    <t>UseCases_v0.2 (01-Apr-22 - 06-Apr-22)</t>
+  </si>
+  <si>
+    <t>DomainModel_v0.2(DomainModel_v0.2)</t>
+  </si>
+  <si>
+    <t>07-Apr-2022</t>
+  </si>
+  <si>
+    <t>11-Apr-2022</t>
+  </si>
+  <si>
+    <t>DomainModel_v0.2 (07-Apr-22 - 11-Apr-22)</t>
+  </si>
+  <si>
+    <t>RobustnessDiagram_v0.1(RobustnessDiagram_v0.1)</t>
+  </si>
+  <si>
+    <t>RobustnessDiagram_v0.1 (11-Apr-22 - 17-Apr-22)</t>
+  </si>
+  <si>
+    <t>3ο Παραδοτέο(3ο Παραδοτέο)</t>
+  </si>
+  <si>
+    <t>3ο Παραδοτέο (17-Apr-22 - 17-Apr-22)</t>
+  </si>
+  <si>
+    <t>ProjectCode_v0.2(ProjectCode_v0.2)</t>
+  </si>
+  <si>
+    <t>18-Apr-2022</t>
+  </si>
+  <si>
+    <t>13-May-2022</t>
+  </si>
+  <si>
+    <t>ProjectCode_v0.2 (18-Apr-22 - 13-May-22)</t>
+  </si>
+  <si>
+    <t>DomainModel_v0.3(DomainModel_v0.3)</t>
+  </si>
+  <si>
+    <t>29-Apr-2022</t>
+  </si>
+  <si>
+    <t>DomainModel_v0.3 (18-Apr-22 - 29-Apr-22)</t>
+  </si>
+  <si>
+    <t>SequenceDiagram_v0.1(SequenceDiagram_v0.1)</t>
+  </si>
+  <si>
+    <t>SequenceDiagram_v0.1 (29-Apr-22 - 13-May-22)</t>
+  </si>
+  <si>
+    <t>4ο Παραδοτέο(4ο Παραδοτέο)</t>
+  </si>
+  <si>
+    <t>4ο Παραδοτέο (13-May-22 - 13-May-22)</t>
+  </si>
+  <si>
+    <t>ProjectCode_v0.3(ProjectCode_v0.3)</t>
+  </si>
+  <si>
+    <t>30-May-2022</t>
+  </si>
+  <si>
+    <t>ProjectCode_v0.3 (13-May-22 - 30-May-22)</t>
+  </si>
+  <si>
+    <t>ClassDiagram_v0.1(ClassDiagram_v0.1)</t>
+  </si>
+  <si>
+    <t>31-May-2022</t>
+  </si>
+  <si>
+    <t>03-Jun-2022</t>
+  </si>
+  <si>
+    <t>ClassDiagram_v0.1 (31-May-22 - 03-Jun-22)</t>
+  </si>
+  <si>
+    <t>5ο Παραδοτέο(5ο Παραδοτέο)</t>
+  </si>
+  <si>
+    <t>5ο Παραδοτέο (03-Jun-22 - 03-Jun-22)</t>
+  </si>
+  <si>
+    <t>ProjectCode_v1.0(ProjectCode_v1.0)</t>
+  </si>
+  <si>
+    <t>10-Jun-2022</t>
+  </si>
+  <si>
+    <t>ProjectCode_v1.0 (03-Jun-22 - 10-Jun-22)</t>
+  </si>
+  <si>
+    <t>UseCases_v1.0(UseCases_v1.0)</t>
+  </si>
+  <si>
+    <t>04-Jun-2022</t>
+  </si>
+  <si>
+    <t>UseCases_v1.0 (03-Jun-22 - 04-Jun-22)</t>
+  </si>
+  <si>
+    <t>DomainModel_v1.0(DomainModel_v1.0)</t>
+  </si>
+  <si>
+    <t>05-Jun-2022</t>
+  </si>
+  <si>
+    <t>06-Jun-2022</t>
+  </si>
+  <si>
+    <t>DomainModel_v1.0 (05-Jun-22 - 06-Jun-22)</t>
+  </si>
+  <si>
+    <t>RobustnessDiagram_v1.0(RobustnessDiagram_v1.0)</t>
+  </si>
+  <si>
+    <t>07-Jun-2022</t>
+  </si>
+  <si>
+    <t>08-Jun-2022</t>
+  </si>
+  <si>
+    <t>RobustnessDiagram_v1.0 (07-Jun-22 - 08-Jun-22)</t>
+  </si>
+  <si>
+    <t>SequenceDiagram_v1.0(SequenceDiagram_v1.0)</t>
+  </si>
+  <si>
+    <t>09-Jun-2022</t>
+  </si>
+  <si>
+    <t>SequenceDiagram_v1.0 (09-Jun-22 - 10-Jun-22)</t>
+  </si>
+  <si>
+    <t>ClassDiagram_v1.0(ClassDiagram_v1.0)</t>
+  </si>
+  <si>
+    <t>11-Jun-2022</t>
+  </si>
+  <si>
+    <t>12-Jun-2022</t>
+  </si>
+  <si>
+    <t>ClassDiagram_v1.0 (11-Jun-22 - 12-Jun-22)</t>
+  </si>
+  <si>
+    <t>6ο Παραδοτέο(6ο Παραδοτέο)</t>
+  </si>
+  <si>
+    <t>6ο Παραδοτέο (12-Jun-22 - 12-Jun-22)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="114">
+  <fonts count="206">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -250,390 +484,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -641,24 +491,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -666,6 +498,969 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -894,7 +1689,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="98">
+  <fills count="144">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -951,6 +1746,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC4C4C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4C4C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4C4C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4C4C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4C4C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4C4C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4C4C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4C4C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4C4C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF333333"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1215,108 +2064,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDCDCDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCDCDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCDCDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCDCDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCDCDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCDCDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCDCDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCDCDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCDCDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCDCDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCDCDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCDCDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCDCDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCDCDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCDCDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCDCDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCDCDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF333333"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1335,18 +2082,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF333333"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1365,24 +2100,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF333333"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1401,12 +2118,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF333333"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1425,18 +2136,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF333333"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1455,7 +2154,379 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1490,36 +2561,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1529,9 +2575,7 @@
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1661,139 +2705,369 @@
     <xf numFmtId="0" fontId="62" fillId="62" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="63" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="64" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="65" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="66" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="67" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="68" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="69" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="70" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="63" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="64" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="71" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="74" fillId="66" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="72" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="69" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="76" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="82" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="84" fillId="72" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="75" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="78" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="86" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="91" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="98" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="83" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="86" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="96" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="79" fillId="73" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="74" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="75" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="77" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="78" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="79" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="81" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="83" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="84" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="85" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="87" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="88" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="89" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="90" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="92" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="93" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="94" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="95" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="97" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="89" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="91" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="95" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="98" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="101" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="103" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="105" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="110" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="113" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="117" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="119" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="124" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="126" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="128" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="131" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="133" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="136" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="138" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="140" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="142" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="71" fillId="65" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="67" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="68" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="70" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="71" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="73" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="74" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="76" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="77" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="79" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="81" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="82" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="84" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="85" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="87" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="88" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="90" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="92" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="93" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="94" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="96" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="97" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="99" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="100" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="102" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="104" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="106" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="107" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="108" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="109" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="111" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="112" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="114" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="115" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="116" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="118" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="120" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="121" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="122" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="123" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="125" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="129" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="130" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="127" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="132" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="134" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="135" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="137" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="139" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="141" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="143" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1804,6 +3078,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2137,25 +3438,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BL10"/>
+  <dimension ref="A1:AU33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M10" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="1" customWidth="1"/>
-    <col min="5" max="5" width="17.09765625" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="17.19921875" customWidth="1"/>
-    <col min="20" max="20" width="18.796875" customWidth="1"/>
-    <col min="21" max="21" width="36.3984375" customWidth="1"/>
+    <col min="5" max="5" width="45.3984375" customWidth="1"/>
+    <col min="6" max="6" width="37.296875" customWidth="1"/>
+    <col min="7" max="7" width="35.69921875" customWidth="1"/>
+    <col min="8" max="8" width="18.796875" customWidth="1"/>
+    <col min="9" max="9" width="36.8984375" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="46.8984375" customWidth="1"/>
+    <col min="12" max="12" width="18.5" customWidth="1"/>
+    <col min="13" max="13" width="19.09765625" customWidth="1"/>
+    <col min="14" max="14" width="14.796875" customWidth="1"/>
+    <col min="15" max="15" width="36.59765625" customWidth="1"/>
+    <col min="18" max="18" width="39.296875" customWidth="1"/>
+    <col min="19" max="19" width="45.796875" customWidth="1"/>
+    <col min="20" max="20" width="20.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="31.2">
+    <row r="1" spans="1:47" ht="31.2">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2163,570 +3473,915 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="15.6">
-      <c r="A2" s="111" t="s">
+    <row r="2" spans="1:47" ht="15.6">
+      <c r="A2" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="195" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="113" t="s">
+      <c r="E2" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="W2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="X2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ2" s="114" t="s">
+      <c r="F2" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="AK2" s="112" t="s">
+      <c r="G2" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="AL2" s="112" t="s">
+      <c r="H2" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="AM2" s="112" t="s">
+      <c r="I2" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="AN2" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO2" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP2" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ2" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR2" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS2" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT2" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU2" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV2" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW2" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX2" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY2" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ2" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA2" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB2" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC2" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD2" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE2" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="BF2" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="BG2" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="BH2" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="BI2" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ2" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="BK2" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL2" s="112" t="s">
-        <v>3</v>
+      <c r="J2" s="198" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="195" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="195" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="195" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="199" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="195" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="195" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="195" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="195" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="200" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="195" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="195" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="195" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="201" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="195" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="195" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="195" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="202" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="195" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC2" s="195" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="195" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE2" s="195" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF2" s="203" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG2" s="195" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH2" s="195" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI2" s="195" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ2" s="204" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK2" s="195" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL2" s="195" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM2" s="195" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN2" s="195" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO2" s="205" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP2" s="195" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ2" s="195" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR2" s="195" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS2" s="206" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT2" s="195" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU2" s="195" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="15.6">
+    <row r="3" spans="1:47" ht="15.6">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA3" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC3" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD3" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE3" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF3" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH3" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI3" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ3" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK3" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL3" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM3" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN3" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO3" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP3" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ3" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="U3" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y3" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z3" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA3" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB3" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC3" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD3" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE3" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF3" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG3" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH3" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI3" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ3" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK3" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL3" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM3" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN3" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO3" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP3" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ3" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR3" s="47" t="s">
-        <v>14</v>
-      </c>
       <c r="AS3" s="48" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="AT3" s="49" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AU3" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="AV3" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW3" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="AX3" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="AY3" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="AZ3" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA3" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="BB3" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="BC3" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD3" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="BE3" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="BF3" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="BG3" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="BH3" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="BI3" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="BJ3" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="BK3" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL3" s="67" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:64" ht="15.6">
-      <c r="A4" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="69" t="s">
+    <row r="4" spans="1:47" ht="15.6">
+      <c r="A4" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="72" t="s">
-        <v>37</v>
+      <c r="E4" s="55" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:64" ht="15.6">
+    <row r="5" spans="1:47" ht="15.6">
       <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="74" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="93" t="s">
-        <v>41</v>
+      <c r="E5" s="143" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="15.6">
+    <row r="6" spans="1:47" ht="15.6">
       <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="95" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="98" t="s">
-        <v>45</v>
+      <c r="E6" s="144" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="145" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="15.6">
+    <row r="7" spans="1:47" ht="15.6">
       <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="100" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" s="101" t="s">
-        <v>49</v>
+      <c r="F7" s="146" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="147" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:64" ht="15.6">
+    <row r="8" spans="1:47" ht="15.6">
       <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="82" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="O8" s="102" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" s="103" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="R8" s="105" t="s">
-        <v>52</v>
+      <c r="F8" s="148" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="149" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:64" ht="15.6">
+    <row r="9" spans="1:47" ht="15.6">
       <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="Q9" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="R9" s="107" t="s">
-        <v>56</v>
-      </c>
-      <c r="S9" s="108" t="s">
-        <v>56</v>
-      </c>
-      <c r="T9" s="109" t="s">
-        <v>56</v>
+      <c r="F9" s="150" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="151" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:64" ht="15.6">
+    <row r="10" spans="1:47" ht="15.6">
       <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="90" t="s">
+      <c r="C10" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="U10" s="110" t="s">
-        <v>59</v>
+      <c r="G10" s="152" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" ht="15.6">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="153" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="154" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" ht="15.6">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="155" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="156" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" ht="15.6">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="157" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="158" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" ht="15.6">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="159" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" ht="15.6">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="160" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="161" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="162" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" ht="15.6">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="163" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="164" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.6">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="165" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="166" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.6">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="167" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.6">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="98" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="99" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="168" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15.6">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="169" t="s">
+        <v>98</v>
+      </c>
+      <c r="M20" s="170" t="s">
+        <v>98</v>
+      </c>
+      <c r="N20" s="171" t="s">
+        <v>98</v>
+      </c>
+      <c r="O20" s="172" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.6">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="104" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="105" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="173" t="s">
+        <v>101</v>
+      </c>
+      <c r="M21" s="174" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.6">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="108" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="175" t="s">
+        <v>103</v>
+      </c>
+      <c r="N22" s="176" t="s">
+        <v>103</v>
+      </c>
+      <c r="O22" s="177" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.6">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="111" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" s="178" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15.6">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="114" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24" s="179" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="180" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24" s="181" t="s">
+        <v>108</v>
+      </c>
+      <c r="R24" s="182" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.6">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="116" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="117" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="R25" s="183" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15.6">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="119" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="120" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="R26" s="186" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15.6">
+      <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="122" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="123" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="R27" s="184" t="s">
+        <v>117</v>
+      </c>
+      <c r="S27" s="185" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15.6">
+      <c r="A28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="125" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="126" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="R28" s="187" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15.6">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="128" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="129" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="R29" s="188" t="s">
+        <v>124</v>
+      </c>
+      <c r="S29" s="189" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15.6">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="131" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="S30" s="190" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15.6">
+      <c r="A31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="134" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="135" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="S31" s="191" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15.6">
+      <c r="A32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="137" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="138" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="S32" s="192" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="15.6">
+      <c r="A33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="140" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="141" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="142" t="s">
+        <v>0</v>
+      </c>
+      <c r="S33" s="193" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="U10"/>
+  <mergeCells count="41">
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AR2"/>
+    <mergeCell ref="S30"/>
+    <mergeCell ref="S31"/>
+    <mergeCell ref="S32"/>
+    <mergeCell ref="S33"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:AI2"/>
-    <mergeCell ref="AJ2:BL2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="R25"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="R26"/>
+    <mergeCell ref="R28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="O23"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="K18"/>
+    <mergeCell ref="K19"/>
+    <mergeCell ref="G10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="I14"/>
+    <mergeCell ref="E5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:BL10" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:AU33 A1:E1 H1:AU1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/TeamPlan_v0.1/Gantt chart/Team planning Gantt chart.xlsx
+++ b/TeamPlan_v0.1/Gantt chart/Team planning Gantt chart.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="148">
   <si>
     <t/>
   </si>
@@ -154,7 +154,7 @@
     <t>31</t>
   </si>
   <si>
-    <t>none - UpSmartLib_v0.1</t>
+    <t>none - Παραδοτέο 1</t>
   </si>
   <si>
     <t>ProjectDescription_v0.1(ProjectDescription_v0.1)</t>
@@ -217,21 +217,27 @@
     <t>1ο Παραδοτέο (17-Mar-22 - 17-Mar-22)</t>
   </si>
   <si>
+    <t>none - Παραδοτέο 2</t>
+  </si>
+  <si>
     <t>ProjectDescription_v0.2(ProjectDescription_v0.2)</t>
   </si>
   <si>
     <t>18-Mar-2022</t>
   </si>
   <si>
+    <t>22-Mar-2022</t>
+  </si>
+  <si>
+    <t>ProjectDescription_v0.2 (18-Mar-22 - 22-Mar-22)</t>
+  </si>
+  <si>
+    <t>UseCases_v0.1(UseCases_v0.1)</t>
+  </si>
+  <si>
     <t>23-Mar-2022</t>
   </si>
   <si>
-    <t>ProjectDescription_v0.2 (18-Mar-22 - 23-Mar-22)</t>
-  </si>
-  <si>
-    <t>UseCases_v0.1(UseCases_v0.1)</t>
-  </si>
-  <si>
     <t>29-Mar-2022</t>
   </si>
   <si>
@@ -259,13 +265,19 @@
     <t>2ο Παραδοτέο (01-Apr-22 - 01-Apr-22)</t>
   </si>
   <si>
+    <t>none - Παραδοτέο 3</t>
+  </si>
+  <si>
     <t>ProjectCode_v0.1(ProjectCode_v0.1)</t>
   </si>
   <si>
+    <t>02-Apr-2022</t>
+  </si>
+  <si>
     <t>17-Apr-2022</t>
   </si>
   <si>
-    <t>ProjectCode_v0.1 (01-Apr-22 - 17-Apr-22)</t>
+    <t>ProjectCode_v0.1 (02-Apr-22 - 17-Apr-22)</t>
   </si>
   <si>
     <t>UseCases_v0.2(UseCases_v0.2)</t>
@@ -274,7 +286,7 @@
     <t>06-Apr-2022</t>
   </si>
   <si>
-    <t>UseCases_v0.2 (01-Apr-22 - 06-Apr-22)</t>
+    <t>UseCases_v0.2 (02-Apr-22 - 06-Apr-22)</t>
   </si>
   <si>
     <t>DomainModel_v0.2(DomainModel_v0.2)</t>
@@ -301,30 +313,39 @@
     <t>3ο Παραδοτέο (17-Apr-22 - 17-Apr-22)</t>
   </si>
   <si>
+    <t>none - Παραδοτέο 4</t>
+  </si>
+  <si>
     <t>ProjectCode_v0.2(ProjectCode_v0.2)</t>
   </si>
   <si>
     <t>18-Apr-2022</t>
   </si>
   <si>
+    <t>12-May-2022</t>
+  </si>
+  <si>
+    <t>ProjectCode_v0.2 (18-Apr-22 - 12-May-22)</t>
+  </si>
+  <si>
+    <t>DomainModel_v0.3(DomainModel_v0.3)</t>
+  </si>
+  <si>
+    <t>19-Apr-2022</t>
+  </si>
+  <si>
+    <t>29-Apr-2022</t>
+  </si>
+  <si>
+    <t>DomainModel_v0.3 (19-Apr-22 - 29-Apr-22)</t>
+  </si>
+  <si>
+    <t>SequenceDiagram_v0.1(SequenceDiagram_v0.1)</t>
+  </si>
+  <si>
     <t>13-May-2022</t>
   </si>
   <si>
-    <t>ProjectCode_v0.2 (18-Apr-22 - 13-May-22)</t>
-  </si>
-  <si>
-    <t>DomainModel_v0.3(DomainModel_v0.3)</t>
-  </si>
-  <si>
-    <t>29-Apr-2022</t>
-  </si>
-  <si>
-    <t>DomainModel_v0.3 (18-Apr-22 - 29-Apr-22)</t>
-  </si>
-  <si>
-    <t>SequenceDiagram_v0.1(SequenceDiagram_v0.1)</t>
-  </si>
-  <si>
     <t>SequenceDiagram_v0.1 (29-Apr-22 - 13-May-22)</t>
   </si>
   <si>
@@ -334,13 +355,19 @@
     <t>4ο Παραδοτέο (13-May-22 - 13-May-22)</t>
   </si>
   <si>
+    <t>none - Παραδοτέο 5</t>
+  </si>
+  <si>
     <t>ProjectCode_v0.3(ProjectCode_v0.3)</t>
   </si>
   <si>
+    <t>14-May-2022</t>
+  </si>
+  <si>
     <t>30-May-2022</t>
   </si>
   <si>
-    <t>ProjectCode_v0.3 (13-May-22 - 30-May-22)</t>
+    <t>ProjectCode_v0.3 (14-May-22 - 30-May-22)</t>
   </si>
   <si>
     <t>ClassDiagram_v0.1(ClassDiagram_v0.1)</t>
@@ -361,61 +388,64 @@
     <t>5ο Παραδοτέο (03-Jun-22 - 03-Jun-22)</t>
   </si>
   <si>
+    <t>none - Παραδοτέο 6</t>
+  </si>
+  <si>
     <t>ProjectCode_v1.0(ProjectCode_v1.0)</t>
   </si>
   <si>
+    <t>04-Jun-2022</t>
+  </si>
+  <si>
     <t>10-Jun-2022</t>
   </si>
   <si>
-    <t>ProjectCode_v1.0 (03-Jun-22 - 10-Jun-22)</t>
+    <t>ProjectCode_v1.0 (04-Jun-22 - 10-Jun-22)</t>
   </si>
   <si>
     <t>UseCases_v1.0(UseCases_v1.0)</t>
   </si>
   <si>
-    <t>04-Jun-2022</t>
-  </si>
-  <si>
-    <t>UseCases_v1.0 (03-Jun-22 - 04-Jun-22)</t>
+    <t>05-Jun-2022</t>
+  </si>
+  <si>
+    <t>UseCases_v1.0 (04-Jun-22 - 05-Jun-22)</t>
   </si>
   <si>
     <t>DomainModel_v1.0(DomainModel_v1.0)</t>
   </si>
   <si>
-    <t>05-Jun-2022</t>
-  </si>
-  <si>
     <t>06-Jun-2022</t>
   </si>
   <si>
-    <t>DomainModel_v1.0 (05-Jun-22 - 06-Jun-22)</t>
+    <t>07-Jun-2022</t>
+  </si>
+  <si>
+    <t>DomainModel_v1.0 (06-Jun-22 - 07-Jun-22)</t>
   </si>
   <si>
     <t>RobustnessDiagram_v1.0(RobustnessDiagram_v1.0)</t>
   </si>
   <si>
-    <t>07-Jun-2022</t>
-  </si>
-  <si>
     <t>08-Jun-2022</t>
   </si>
   <si>
-    <t>RobustnessDiagram_v1.0 (07-Jun-22 - 08-Jun-22)</t>
+    <t>09-Jun-2022</t>
+  </si>
+  <si>
+    <t>RobustnessDiagram_v1.0 (08-Jun-22 - 09-Jun-22)</t>
   </si>
   <si>
     <t>SequenceDiagram_v1.0(SequenceDiagram_v1.0)</t>
   </si>
   <si>
-    <t>09-Jun-2022</t>
-  </si>
-  <si>
-    <t>SequenceDiagram_v1.0 (09-Jun-22 - 10-Jun-22)</t>
+    <t>11-Jun-2022</t>
+  </si>
+  <si>
+    <t>SequenceDiagram_v1.0 (10-Jun-22 - 11-Jun-22)</t>
   </si>
   <si>
     <t>ClassDiagram_v1.0(ClassDiagram_v1.0)</t>
-  </si>
-  <si>
-    <t>11-Jun-2022</t>
   </si>
   <si>
     <t>12-Jun-2022</t>
@@ -434,7 +464,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="206">
+  <fonts count="230">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1029,486 +1059,640 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1689,7 +1873,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="144">
+  <fills count="148">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2172,6 +2356,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF784BD1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF784BD1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF784BD1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF784BD1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF784BD1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF784BD1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF784BD1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF579BFC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2184,6 +2446,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF579BFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF333333"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2244,49 +2512,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF333333"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF333333"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
+        <fgColor rgb="FFBB3354"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBB3354"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBB3354"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBB3354"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2298,7 +2554,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
+        <fgColor rgb="FFBB3354"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBB3354"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2310,7 +2572,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
+        <fgColor rgb="FFBB3354"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBB3354"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBB3354"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2322,25 +2596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
+        <fgColor rgb="FFBB3354"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2352,37 +2608,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF333333"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
+        <fgColor rgb="FFFF158A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF158A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF158A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF158A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2394,7 +2644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
+        <fgColor rgb="FFFF158A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2406,25 +2656,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
+        <fgColor rgb="FFFF158A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2436,19 +2668,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF333333"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
+        <fgColor rgb="FFA25DDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA25DDC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2460,13 +2692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
+        <fgColor rgb="FFA25DDC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2478,7 +2704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
+        <fgColor rgb="FFA25DDC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2490,13 +2716,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
+        <fgColor rgb="FFA25DDC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2508,7 +2728,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
+        <fgColor rgb="FFA25DDC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2520,7 +2740,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
+        <fgColor rgb="FFA25DDC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2532,19 +2752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF333333"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF579BFC"/>
+        <fgColor rgb="FFA25DDC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2561,7 +2769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2756,167 +2964,372 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="94" fillId="78" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="83" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="103" fillId="81" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="86" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="108" fillId="84" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="89" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="113" fillId="87" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="91" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="90" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="95" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="123" fillId="92" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="128" fillId="98" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="127" fillId="93" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="101" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="133" fillId="97" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="103" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="141" fillId="105" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="100" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="103" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="148" fillId="110" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="147" fillId="105" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="153" fillId="113" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="159" fillId="117" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="152" fillId="107" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="108" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="119" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="170" fillId="124" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="163" fillId="113" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="116" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="126" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="174" fillId="120" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="128" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="122" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="131" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="187" fillId="133" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="192" fillId="136" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="196" fillId="138" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="183" fillId="123" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="128" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="130" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="200" fillId="140" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="199" fillId="132" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="204" fillId="142" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="203" fillId="133" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="136" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="138" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="140" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="142" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="144" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="146" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="141" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="143" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="145" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="147" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="129" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="131" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="134" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="135" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="137" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="139" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="109" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="110" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="111" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="112" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="114" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="115" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="117" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="118" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="119" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="121" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="124" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="125" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="126" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="127" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="94" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="95" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="96" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="98" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="99" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="101" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="102" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="104" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="106" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="79" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="82" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="83" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="85" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="86" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="88" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="89" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="91" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="71" fillId="65" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2942,169 +3355,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="91" fillId="77" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="79" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="81" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="82" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="84" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="85" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="87" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="88" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="90" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="118" fillId="92" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="93" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="94" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="96" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="97" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="99" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="130" fillId="100" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="102" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="104" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="106" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="107" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="144" fillId="108" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="109" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="111" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="112" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="154" fillId="114" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="115" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="156" fillId="116" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="160" fillId="118" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="120" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="165" fillId="121" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="166" fillId="122" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="167" fillId="123" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="171" fillId="125" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="179" fillId="129" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="180" fillId="130" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="175" fillId="127" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="184" fillId="132" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="188" fillId="134" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="189" fillId="135" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="193" fillId="137" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="197" fillId="139" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="201" fillId="141" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="205" fillId="143" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3438,31 +3688,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU33"/>
+  <dimension ref="A1:AU38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M10" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="N10" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="1" customWidth="1"/>
-    <col min="5" max="5" width="45.3984375" customWidth="1"/>
-    <col min="6" max="6" width="37.296875" customWidth="1"/>
-    <col min="7" max="7" width="35.69921875" customWidth="1"/>
-    <col min="8" max="8" width="18.796875" customWidth="1"/>
-    <col min="9" max="9" width="36.8984375" customWidth="1"/>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
-    <col min="11" max="11" width="46.8984375" customWidth="1"/>
-    <col min="12" max="12" width="18.5" customWidth="1"/>
-    <col min="13" max="13" width="19.09765625" customWidth="1"/>
-    <col min="14" max="14" width="14.796875" customWidth="1"/>
-    <col min="15" max="15" width="36.59765625" customWidth="1"/>
-    <col min="18" max="18" width="39.296875" customWidth="1"/>
-    <col min="19" max="19" width="45.796875" customWidth="1"/>
-    <col min="20" max="20" width="20.69921875" customWidth="1"/>
+    <col min="5" max="5" width="41.5" customWidth="1"/>
+    <col min="7" max="7" width="35.19921875" customWidth="1"/>
+    <col min="9" max="9" width="37.296875" customWidth="1"/>
+    <col min="11" max="11" width="43.69921875" customWidth="1"/>
+    <col min="13" max="13" width="29.796875" customWidth="1"/>
+    <col min="15" max="15" width="41.8984375" customWidth="1"/>
+    <col min="18" max="18" width="38.296875" customWidth="1"/>
+    <col min="19" max="19" width="45.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="31.2">
@@ -3473,150 +3717,150 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="15.6">
-      <c r="A2" s="194" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="195" t="s">
+    <row r="2" spans="1:47">
+      <c r="A2" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="169" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="169" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="196" t="s">
+      <c r="E2" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="197" t="s">
+      <c r="F2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="195" t="s">
+      <c r="G2" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="195" t="s">
+      <c r="H2" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="195" t="s">
+      <c r="I2" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="198" t="s">
+      <c r="J2" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="195" t="s">
+      <c r="K2" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="195" t="s">
+      <c r="L2" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="195" t="s">
+      <c r="M2" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="199" t="s">
+      <c r="N2" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="195" t="s">
+      <c r="O2" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="195" t="s">
+      <c r="P2" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="195" t="s">
+      <c r="Q2" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="195" t="s">
+      <c r="R2" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="200" t="s">
+      <c r="S2" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="195" t="s">
+      <c r="T2" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="195" t="s">
+      <c r="U2" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="195" t="s">
+      <c r="V2" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="201" t="s">
+      <c r="W2" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="195" t="s">
+      <c r="X2" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="195" t="s">
+      <c r="Y2" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="195" t="s">
+      <c r="Z2" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="202" t="s">
+      <c r="AA2" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="195" t="s">
+      <c r="AB2" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="195" t="s">
+      <c r="AC2" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="195" t="s">
+      <c r="AD2" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="195" t="s">
+      <c r="AE2" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="203" t="s">
+      <c r="AF2" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="195" t="s">
+      <c r="AG2" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="195" t="s">
+      <c r="AH2" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="AI2" s="195" t="s">
+      <c r="AI2" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="AJ2" s="204" t="s">
+      <c r="AJ2" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="AK2" s="195" t="s">
+      <c r="AK2" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="AL2" s="195" t="s">
+      <c r="AL2" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="AM2" s="195" t="s">
+      <c r="AM2" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="AN2" s="195" t="s">
+      <c r="AN2" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="AO2" s="205" t="s">
+      <c r="AO2" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" s="195" t="s">
+      <c r="AP2" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="AQ2" s="195" t="s">
+      <c r="AQ2" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="AR2" s="195" t="s">
+      <c r="AR2" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="AS2" s="206" t="s">
+      <c r="AS2" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="AT2" s="195" t="s">
+      <c r="AT2" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="AU2" s="195" t="s">
+      <c r="AU2" s="169" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="15.6">
+    <row r="3" spans="1:47">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -3759,7 +4003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="15.6">
+    <row r="4" spans="1:47">
       <c r="A4" s="51" t="s">
         <v>46</v>
       </c>
@@ -3776,7 +4020,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="15.6">
+    <row r="5" spans="1:47">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -3789,11 +4033,11 @@
       <c r="D5" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="143" t="s">
+      <c r="E5" s="222" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="15.6">
+    <row r="6" spans="1:47">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -3806,14 +4050,14 @@
       <c r="D6" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="144" t="s">
+      <c r="E6" s="223" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="145" t="s">
+      <c r="F6" s="224" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="15.6">
+    <row r="7" spans="1:47">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3826,14 +4070,14 @@
       <c r="D7" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="146" t="s">
+      <c r="F7" s="225" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="147" t="s">
+      <c r="G7" s="226" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="15.6">
+    <row r="8" spans="1:47">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -3846,14 +4090,14 @@
       <c r="D8" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="148" t="s">
+      <c r="F8" s="227" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="149" t="s">
+      <c r="G8" s="228" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:47" ht="15.6">
+    <row r="9" spans="1:47">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -3866,14 +4110,14 @@
       <c r="D9" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="150" t="s">
+      <c r="F9" s="229" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="230" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:47" ht="15.6">
+    <row r="10" spans="1:47">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -3886,502 +4130,584 @@
       <c r="D10" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="152" t="s">
+      <c r="G10" s="214" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:47" ht="15.6">
-      <c r="A11" t="s">
+    <row r="11" spans="1:47">
+      <c r="A11" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="78" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47">
+      <c r="A12" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="B12" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="153" t="s">
+      <c r="C12" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="154" t="s">
-        <v>70</v>
+      <c r="D12" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="215" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="216" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:47" ht="15.6">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="78" t="s">
+    <row r="13" spans="1:47">
+      <c r="A13" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="155" t="s">
+      <c r="B13" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="156" t="s">
-        <v>73</v>
+      <c r="C13" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="217" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="218" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:47" ht="15.6">
-      <c r="A13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="81" t="s">
+    <row r="14" spans="1:47">
+      <c r="A14" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="157" t="s">
+      <c r="B14" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="158" t="s">
-        <v>77</v>
+      <c r="C14" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="219" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="220" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:47" ht="15.6">
-      <c r="A14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="83" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="159" t="s">
+    <row r="15" spans="1:47">
+      <c r="A15" t="s">
         <v>80</v>
       </c>
+      <c r="B15" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="221" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="15" spans="1:47" ht="15.6">
-      <c r="A15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="160" t="s">
+    <row r="16" spans="1:47">
+      <c r="A16" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="J15" s="161" t="s">
+      <c r="B16" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="162" t="s">
-        <v>83</v>
-      </c>
     </row>
-    <row r="16" spans="1:47" ht="15.6">
-      <c r="A16" t="s">
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="90" t="s">
+      <c r="B17" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="163" t="s">
+      <c r="C17" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="J16" s="164" t="s">
-        <v>86</v>
+      <c r="D17" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="205" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="206" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="207" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.6">
-      <c r="A17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="92" t="s">
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="93" t="s">
+      <c r="B18" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="165" t="s">
+      <c r="D18" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="208" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="166" t="s">
+      <c r="J18" s="209" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.6">
-      <c r="A18" t="s">
+    <row r="19" spans="1:19">
+      <c r="A19" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="96" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18" s="167" t="s">
+      <c r="B19" s="102" t="s">
         <v>92</v>
       </c>
+      <c r="C19" s="103" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="210" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="211" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="19" spans="1:19" ht="15.6">
-      <c r="A19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="98" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="99" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="K19" s="168" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="15.6">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="212" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="102" t="s">
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="L20" s="169" t="s">
+      <c r="B21" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="213" t="s">
         <v>98</v>
       </c>
-      <c r="M20" s="170" t="s">
-        <v>98</v>
-      </c>
-      <c r="N20" s="171" t="s">
-        <v>98</v>
-      </c>
-      <c r="O20" s="172" t="s">
-        <v>98</v>
-      </c>
     </row>
-    <row r="21" spans="1:19" ht="15.6">
-      <c r="A21" t="s">
+    <row r="22" spans="1:19">
+      <c r="A22" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="104" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="105" t="s">
+      <c r="B22" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="115" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="106" t="s">
-        <v>0</v>
-      </c>
-      <c r="L21" s="173" t="s">
+      <c r="B23" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="M21" s="174" t="s">
-        <v>101</v>
+      <c r="C23" s="117" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="191" t="s">
+        <v>103</v>
+      </c>
+      <c r="M23" s="192" t="s">
+        <v>103</v>
+      </c>
+      <c r="N23" s="193" t="s">
+        <v>103</v>
+      </c>
+      <c r="O23" s="194" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.6">
-      <c r="A22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="107" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="108" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="M22" s="175" t="s">
-        <v>103</v>
-      </c>
-      <c r="N22" s="176" t="s">
-        <v>103</v>
-      </c>
-      <c r="O22" s="177" t="s">
-        <v>103</v>
+    <row r="24" spans="1:19">
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="119" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="120" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="195" t="s">
+        <v>107</v>
+      </c>
+      <c r="M24" s="196" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15.6">
-      <c r="A23" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="110" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="O23" s="178" t="s">
-        <v>105</v>
+    <row r="25" spans="1:19">
+      <c r="A25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="122" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="123" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="197" t="s">
+        <v>110</v>
+      </c>
+      <c r="N25" s="198" t="s">
+        <v>110</v>
+      </c>
+      <c r="O25" s="199" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15.6">
-      <c r="A24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="114" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="O24" s="179" t="s">
-        <v>108</v>
-      </c>
-      <c r="P24" s="180" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q24" s="181" t="s">
-        <v>108</v>
-      </c>
-      <c r="R24" s="182" t="s">
-        <v>108</v>
+    <row r="26" spans="1:19">
+      <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="125" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26" s="200" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15.6">
-      <c r="A25" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="116" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="117" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="R25" s="183" t="s">
-        <v>112</v>
+    <row r="27" spans="1:19">
+      <c r="A27" s="128" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="132" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15.6">
-      <c r="A26" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="119" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="120" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="R26" s="186" t="s">
+    <row r="28" spans="1:19">
+      <c r="A28" t="s">
         <v>114</v>
       </c>
+      <c r="B28" s="133" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="134" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="135" t="s">
+        <v>0</v>
+      </c>
+      <c r="O28" s="201" t="s">
+        <v>117</v>
+      </c>
+      <c r="P28" s="202" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q28" s="203" t="s">
+        <v>117</v>
+      </c>
+      <c r="R28" s="204" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="27" spans="1:19" ht="15.6">
-      <c r="A27" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="122" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="123" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="R27" s="184" t="s">
-        <v>117</v>
-      </c>
-      <c r="S27" s="185" t="s">
-        <v>117</v>
+    <row r="29" spans="1:19">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="136" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="137" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="R29" s="185" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15.6">
-      <c r="A28" t="s">
-        <v>118</v>
-      </c>
-      <c r="B28" s="125" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="126" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="127" t="s">
-        <v>0</v>
-      </c>
-      <c r="R28" s="187" t="s">
+    <row r="30" spans="1:19">
+      <c r="A30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="139" t="s">
         <v>120</v>
       </c>
+      <c r="C30" s="140" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30" s="186" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="29" spans="1:19" ht="15.6">
-      <c r="A29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="128" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="129" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="130" t="s">
-        <v>0</v>
-      </c>
-      <c r="R29" s="188" t="s">
+    <row r="31" spans="1:19">
+      <c r="A31" s="142" t="s">
         <v>124</v>
       </c>
-      <c r="S29" s="189" t="s">
+      <c r="B31" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="146" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15.6">
-      <c r="A30" t="s">
+    <row r="32" spans="1:19">
+      <c r="A32" t="s">
         <v>125</v>
       </c>
-      <c r="B30" s="131" t="s">
+      <c r="B32" s="147" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="132" t="s">
+      <c r="C32" s="148" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="S30" s="190" t="s">
+      <c r="D32" s="149" t="s">
+        <v>0</v>
+      </c>
+      <c r="R32" s="187" t="s">
         <v>128</v>
       </c>
+      <c r="S32" s="188" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="31" spans="1:19" ht="15.6">
-      <c r="A31" t="s">
+    <row r="33" spans="1:19">
+      <c r="A33" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="134" t="s">
+      <c r="B33" s="150" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="S31" s="191" t="s">
+      <c r="D33" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="R33" s="189" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15.6">
-      <c r="A32" t="s">
+    <row r="34" spans="1:19">
+      <c r="A34" t="s">
         <v>132</v>
       </c>
-      <c r="B32" s="137" t="s">
+      <c r="B34" s="153" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="138" t="s">
+      <c r="C34" s="154" t="s">
         <v>134</v>
       </c>
-      <c r="D32" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="S32" s="192" t="s">
+      <c r="D34" s="155" t="s">
+        <v>0</v>
+      </c>
+      <c r="S34" s="190" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15.6">
-      <c r="A33" t="s">
+    <row r="35" spans="1:19">
+      <c r="A35" t="s">
         <v>136</v>
       </c>
-      <c r="B33" s="140" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="141" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="142" t="s">
-        <v>0</v>
-      </c>
-      <c r="S33" s="193" t="s">
+      <c r="B35" s="156" t="s">
         <v>137</v>
+      </c>
+      <c r="C35" s="157" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="S35" s="175" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="159" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="160" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="S36" s="176" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="162" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="163" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="164" t="s">
+        <v>0</v>
+      </c>
+      <c r="S37" s="177" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="165" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="166" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="167" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" s="178" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="E5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="G10"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="I15"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="O26"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="K20"/>
+    <mergeCell ref="K21"/>
+    <mergeCell ref="S35"/>
+    <mergeCell ref="S36"/>
+    <mergeCell ref="S37"/>
+    <mergeCell ref="S38"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="R29"/>
+    <mergeCell ref="R30"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R33"/>
+    <mergeCell ref="S34"/>
+    <mergeCell ref="L23:O23"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="W2:Z2"/>
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="AJ2:AN2"/>
     <mergeCell ref="AO2:AR2"/>
-    <mergeCell ref="S30"/>
-    <mergeCell ref="S31"/>
-    <mergeCell ref="S32"/>
-    <mergeCell ref="S33"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="R25"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="R26"/>
-    <mergeCell ref="R28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="O23"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="K18"/>
-    <mergeCell ref="K19"/>
-    <mergeCell ref="G10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="I14"/>
-    <mergeCell ref="E5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:AU33 A1:E1 H1:AU1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:AU38" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>